--- a/data/league_data/spain/21/spain_shot_creation.xlsx
+++ b/data/league_data/spain/21/spain_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E18AF6-3F56-B645-96DE-A46723B1ED61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D829D29-F4BE-5C41-95A7-E56CD82C1D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="597">
   <si>
     <t>SCA</t>
   </si>
@@ -1519,9 +1519,6 @@
     <t>Facundo Pellistri</t>
   </si>
   <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
     <t>Eden Hazard</t>
   </si>
   <si>
@@ -1564,9 +1561,6 @@
     <t>Kenan Kodro</t>
   </si>
   <si>
-    <t>Javi Martínez</t>
-  </si>
-  <si>
     <t>Okay Yokuşlu</t>
   </si>
   <si>
@@ -1802,6 +1796,21 @@
   </si>
   <si>
     <t>Eugeni Valderrama</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Rodrigo Sanchez</t>
+  </si>
+  <si>
+    <t>Javi Martínez Calvo</t>
   </si>
 </sst>
 </file>
@@ -2668,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14915,7 +14924,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>241</v>
+        <v>592</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>26</v>
@@ -17653,7 +17662,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>281</v>
+        <v>594</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>26</v>
@@ -21279,7 +21288,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>332</v>
+        <v>593</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>26</v>
@@ -32791,7 +32800,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>499</v>
+        <v>595</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>26</v>
@@ -32865,7 +32874,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>19</v>
@@ -32939,7 +32948,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>26</v>
@@ -33013,7 +33022,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>67</v>
@@ -33087,7 +33096,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>108</v>
@@ -33161,10 +33170,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>50</v>
@@ -33235,7 +33244,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>26</v>
@@ -33383,7 +33392,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>26</v>
@@ -33457,7 +33466,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>350</v>
@@ -33531,7 +33540,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>59</v>
@@ -33605,7 +33614,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>59</v>
@@ -33679,7 +33688,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>26</v>
@@ -33753,7 +33762,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>64</v>
@@ -33827,7 +33836,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>480</v>
@@ -33901,7 +33910,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>26</v>
@@ -33975,7 +33984,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>350</v>
@@ -34049,7 +34058,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>26</v>
@@ -34123,7 +34132,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>26</v>
@@ -34197,7 +34206,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>26</v>
@@ -34271,10 +34280,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>20</v>
@@ -34345,7 +34354,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>26</v>
@@ -34419,7 +34428,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>26</v>
@@ -34567,7 +34576,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>26</v>
@@ -34641,7 +34650,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>26</v>
@@ -34715,7 +34724,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>26</v>
@@ -34789,7 +34798,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>26</v>
@@ -34863,7 +34872,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>26</v>
@@ -34937,7 +34946,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>26</v>
@@ -35011,7 +35020,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>26</v>
@@ -35085,7 +35094,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>45</v>
@@ -35159,7 +35168,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>454</v>
@@ -35233,7 +35242,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>26</v>
@@ -35307,7 +35316,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>26</v>
@@ -35381,7 +35390,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>59</v>
@@ -35455,7 +35464,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>26</v>
@@ -35529,7 +35538,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>26</v>
@@ -35603,7 +35612,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>59</v>
@@ -35677,7 +35686,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>26</v>
@@ -35751,7 +35760,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>91</v>
@@ -35825,7 +35834,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>26</v>
@@ -35899,7 +35908,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>62</v>
@@ -35973,7 +35982,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>26</v>
@@ -36047,7 +36056,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>26</v>
@@ -36121,7 +36130,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>59</v>
@@ -36269,7 +36278,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>26</v>
@@ -36343,7 +36352,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>26</v>
@@ -36417,7 +36426,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>26</v>
@@ -36491,7 +36500,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>26</v>
@@ -36565,7 +36574,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>26</v>
@@ -36639,7 +36648,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>26</v>
@@ -36713,7 +36722,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>26</v>
@@ -36787,7 +36796,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>26</v>
@@ -36861,7 +36870,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>26</v>
@@ -36935,7 +36944,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>62</v>
@@ -37009,7 +37018,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>26</v>
@@ -37083,7 +37092,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>26</v>
@@ -37157,7 +37166,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>26</v>
@@ -37231,7 +37240,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>26</v>
@@ -37273,7 +37282,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>26</v>
@@ -37347,10 +37356,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>112</v>
@@ -37421,7 +37430,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>26</v>
@@ -37495,7 +37504,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>26</v>
@@ -37569,7 +37578,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>26</v>
@@ -37643,7 +37652,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>180</v>
@@ -37717,7 +37726,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>59</v>
@@ -37791,10 +37800,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>60</v>
@@ -37865,7 +37874,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>67</v>
@@ -37939,7 +37948,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>354</v>
@@ -38013,7 +38022,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>26</v>
@@ -38087,13 +38096,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>39</v>
@@ -38161,7 +38170,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>26</v>
@@ -38235,7 +38244,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>91</v>
@@ -38309,7 +38318,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>26</v>
@@ -38383,7 +38392,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>91</v>
@@ -38457,7 +38466,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>59</v>
@@ -38531,7 +38540,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>26</v>
@@ -38605,7 +38614,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>26</v>
@@ -38679,7 +38688,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>26</v>
@@ -38753,7 +38762,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>59</v>
@@ -38827,7 +38836,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>45</v>
@@ -38901,7 +38910,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>26</v>
@@ -38975,7 +38984,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>26</v>
@@ -39049,7 +39058,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>26</v>
@@ -39123,10 +39132,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>35</v>
@@ -39197,7 +39206,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>339</v>
@@ -39271,7 +39280,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>26</v>
@@ -39345,7 +39354,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>26</v>
@@ -39419,7 +39428,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>26</v>
@@ -39493,7 +39502,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>26</v>
@@ -39567,7 +39576,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>26</v>

--- a/data/league_data/spain/21/spain_shot_creation.xlsx
+++ b/data/league_data/spain/21/spain_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D829D29-F4BE-5C41-95A7-E56CD82C1D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0938658F-F397-F14B-915A-D85AF3F26529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,9 +931,6 @@
     <t>João Félix</t>
   </si>
   <si>
-    <t>Sergio Álvarez</t>
-  </si>
-  <si>
     <t>Martin Agirregabiria</t>
   </si>
   <si>
@@ -1811,6 +1808,9 @@
   </si>
   <si>
     <t>Javi Martínez Calvo</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
   </si>
 </sst>
 </file>
@@ -2677,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14924,7 +14924,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>26</v>
@@ -17662,7 +17662,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>26</v>
@@ -19216,7 +19216,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>303</v>
+        <v>596</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>26</v>
@@ -19290,7 +19290,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>26</v>
@@ -19364,7 +19364,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>26</v>
@@ -19438,7 +19438,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>59</v>
@@ -19512,7 +19512,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>26</v>
@@ -19586,7 +19586,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>26</v>
@@ -19660,7 +19660,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>26</v>
@@ -19734,7 +19734,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>26</v>
@@ -19808,7 +19808,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>257</v>
@@ -19882,10 +19882,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>60</v>
@@ -19956,7 +19956,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>26</v>
@@ -20030,7 +20030,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>67</v>
@@ -20104,7 +20104,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>26</v>
@@ -20178,7 +20178,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>62</v>
@@ -20252,7 +20252,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>117</v>
@@ -20326,7 +20326,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>64</v>
@@ -20400,7 +20400,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>26</v>
@@ -20474,7 +20474,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>26</v>
@@ -20548,7 +20548,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>26</v>
@@ -20622,7 +20622,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>26</v>
@@ -20696,7 +20696,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>26</v>
@@ -20770,7 +20770,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>26</v>
@@ -20844,7 +20844,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>26</v>
@@ -20918,7 +20918,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>26</v>
@@ -20992,7 +20992,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>26</v>
@@ -21066,7 +21066,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>26</v>
@@ -21140,7 +21140,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>26</v>
@@ -21214,7 +21214,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>26</v>
@@ -21288,7 +21288,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>26</v>
@@ -21362,7 +21362,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>26</v>
@@ -21436,7 +21436,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>26</v>
@@ -21510,7 +21510,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>26</v>
@@ -21584,7 +21584,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>74</v>
@@ -21658,7 +21658,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>26</v>
@@ -21732,10 +21732,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>112</v>
@@ -21806,7 +21806,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>62</v>
@@ -21880,7 +21880,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>26</v>
@@ -21954,7 +21954,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>26</v>
@@ -22028,7 +22028,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>26</v>
@@ -22102,7 +22102,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>26</v>
@@ -22176,7 +22176,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>67</v>
@@ -22250,7 +22250,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>187</v>
@@ -22324,7 +22324,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>67</v>
@@ -22398,7 +22398,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>164</v>
@@ -22472,10 +22472,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>50</v>
@@ -22546,7 +22546,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>26</v>
@@ -22620,7 +22620,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>26</v>
@@ -22694,10 +22694,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>38</v>
@@ -22768,7 +22768,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>26</v>
@@ -22842,7 +22842,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>26</v>
@@ -22916,7 +22916,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>26</v>
@@ -22990,7 +22990,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>26</v>
@@ -23064,7 +23064,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>26</v>
@@ -23138,7 +23138,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>26</v>
@@ -23212,7 +23212,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>41</v>
@@ -23286,10 +23286,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>60</v>
@@ -23434,7 +23434,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>26</v>
@@ -23508,7 +23508,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>26</v>
@@ -23582,7 +23582,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>59</v>
@@ -23656,7 +23656,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>91</v>
@@ -23730,10 +23730,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>38</v>
@@ -23804,7 +23804,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>26</v>
@@ -23878,7 +23878,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>117</v>
@@ -23952,7 +23952,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>26</v>
@@ -24026,7 +24026,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>62</v>
@@ -24100,7 +24100,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>26</v>
@@ -24174,7 +24174,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>26</v>
@@ -24248,7 +24248,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>71</v>
@@ -24322,7 +24322,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>64</v>
@@ -24396,10 +24396,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>38</v>
@@ -24470,7 +24470,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>59</v>
@@ -24544,7 +24544,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>26</v>
@@ -24618,7 +24618,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>26</v>
@@ -24692,7 +24692,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>59</v>
@@ -24766,7 +24766,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>26</v>
@@ -24840,7 +24840,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>64</v>
@@ -24914,7 +24914,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>91</v>
@@ -24988,7 +24988,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>26</v>
@@ -25062,7 +25062,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>64</v>
@@ -25136,7 +25136,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>269</v>
@@ -25210,7 +25210,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>269</v>
@@ -25284,7 +25284,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>45</v>
@@ -25358,7 +25358,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>26</v>
@@ -25432,7 +25432,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>26</v>
@@ -25506,7 +25506,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>26</v>
@@ -25580,7 +25580,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>59</v>
@@ -25654,7 +25654,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>26</v>
@@ -25728,10 +25728,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>35</v>
@@ -25802,7 +25802,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>91</v>
@@ -25876,7 +25876,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>62</v>
@@ -25950,7 +25950,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>26</v>
@@ -26024,7 +26024,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>64</v>
@@ -26098,7 +26098,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>45</v>
@@ -26172,7 +26172,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>26</v>
@@ -26246,7 +26246,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>19</v>
@@ -26320,7 +26320,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>59</v>
@@ -26394,7 +26394,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>26</v>
@@ -26468,7 +26468,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>64</v>
@@ -26542,7 +26542,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>26</v>
@@ -26616,7 +26616,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>26</v>
@@ -26690,7 +26690,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>26</v>
@@ -26764,7 +26764,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>26</v>
@@ -26838,7 +26838,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>26</v>
@@ -26912,7 +26912,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>26</v>
@@ -26986,7 +26986,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>26</v>
@@ -27060,10 +27060,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>50</v>
@@ -27134,7 +27134,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>26</v>
@@ -27208,7 +27208,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>59</v>
@@ -27282,7 +27282,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>26</v>
@@ -27356,7 +27356,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>26</v>
@@ -27430,7 +27430,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>26</v>
@@ -27504,7 +27504,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>45</v>
@@ -27578,7 +27578,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>26</v>
@@ -27652,7 +27652,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>26</v>
@@ -27726,7 +27726,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>74</v>
@@ -27800,7 +27800,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>41</v>
@@ -27874,7 +27874,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>26</v>
@@ -27948,7 +27948,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>26</v>
@@ -28022,7 +28022,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>64</v>
@@ -28096,7 +28096,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>26</v>
@@ -28170,7 +28170,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>238</v>
@@ -28244,7 +28244,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>164</v>
@@ -28318,7 +28318,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>45</v>
@@ -28392,7 +28392,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>26</v>
@@ -28466,7 +28466,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>74</v>
@@ -28540,7 +28540,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>26</v>
@@ -28614,7 +28614,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>26</v>
@@ -28688,7 +28688,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>26</v>
@@ -28762,7 +28762,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>26</v>
@@ -28836,7 +28836,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>26</v>
@@ -28910,7 +28910,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>26</v>
@@ -28984,7 +28984,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>26</v>
@@ -29058,7 +29058,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>26</v>
@@ -29132,7 +29132,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>79</v>
@@ -29206,7 +29206,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>26</v>
@@ -29280,7 +29280,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>269</v>
@@ -29354,7 +29354,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>26</v>
@@ -29428,7 +29428,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>26</v>
@@ -29502,10 +29502,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>35</v>
@@ -29576,7 +29576,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>117</v>
@@ -29650,10 +29650,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>35</v>
@@ -29724,7 +29724,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>26</v>
@@ -29798,7 +29798,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>26</v>
@@ -29872,7 +29872,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>26</v>
@@ -29946,7 +29946,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>117</v>
@@ -30020,7 +30020,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>62</v>
@@ -30094,7 +30094,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>59</v>
@@ -30168,7 +30168,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>26</v>
@@ -30242,7 +30242,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>59</v>
@@ -30316,7 +30316,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>26</v>
@@ -30390,7 +30390,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>26</v>
@@ -30464,7 +30464,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>26</v>
@@ -30538,7 +30538,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>59</v>
@@ -30612,7 +30612,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>26</v>
@@ -30686,7 +30686,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>91</v>
@@ -30760,7 +30760,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>64</v>
@@ -30834,7 +30834,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>64</v>
@@ -30908,7 +30908,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>164</v>
@@ -30982,7 +30982,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>91</v>
@@ -31024,7 +31024,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>64</v>
@@ -31098,7 +31098,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>41</v>
@@ -31172,7 +31172,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>26</v>
@@ -31246,7 +31246,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>26</v>
@@ -31320,7 +31320,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>62</v>
@@ -31394,7 +31394,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>26</v>
@@ -31468,7 +31468,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>64</v>
@@ -31542,10 +31542,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>35</v>
@@ -31616,7 +31616,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>62</v>
@@ -31690,10 +31690,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>112</v>
@@ -31764,10 +31764,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>38</v>
@@ -31838,7 +31838,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>26</v>
@@ -31912,7 +31912,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>26</v>
@@ -31986,7 +31986,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>67</v>
@@ -32060,7 +32060,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>26</v>
@@ -32134,7 +32134,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>26</v>
@@ -32208,7 +32208,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>26</v>
@@ -32282,7 +32282,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>26</v>
@@ -32356,7 +32356,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>26</v>
@@ -32430,7 +32430,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>26</v>
@@ -32504,7 +32504,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>26</v>
@@ -32578,7 +32578,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>26</v>
@@ -32652,7 +32652,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>26</v>
@@ -32726,7 +32726,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>67</v>
@@ -32800,7 +32800,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>26</v>
@@ -32874,7 +32874,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>19</v>
@@ -32948,7 +32948,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>26</v>
@@ -33022,7 +33022,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>67</v>
@@ -33096,7 +33096,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>108</v>
@@ -33170,10 +33170,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>50</v>
@@ -33244,7 +33244,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>26</v>
@@ -33392,7 +33392,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>26</v>
@@ -33466,10 +33466,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>60</v>
@@ -33540,7 +33540,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>59</v>
@@ -33614,7 +33614,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>59</v>
@@ -33688,7 +33688,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>26</v>
@@ -33762,7 +33762,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>64</v>
@@ -33836,10 +33836,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>60</v>
@@ -33910,7 +33910,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>26</v>
@@ -33984,10 +33984,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>35</v>
@@ -34058,7 +34058,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>26</v>
@@ -34132,7 +34132,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>26</v>
@@ -34206,7 +34206,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>26</v>
@@ -34280,10 +34280,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>518</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>20</v>
@@ -34354,7 +34354,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>26</v>
@@ -34428,7 +34428,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>26</v>
@@ -34502,10 +34502,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>35</v>
@@ -34576,7 +34576,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>26</v>
@@ -34650,7 +34650,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>26</v>
@@ -34724,7 +34724,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>26</v>
@@ -34798,7 +34798,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>26</v>
@@ -34872,7 +34872,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>26</v>
@@ -34946,7 +34946,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>26</v>
@@ -35020,7 +35020,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>26</v>
@@ -35094,7 +35094,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>45</v>
@@ -35168,10 +35168,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>35</v>
@@ -35242,7 +35242,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>26</v>
@@ -35316,7 +35316,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>26</v>
@@ -35390,7 +35390,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>59</v>
@@ -35464,7 +35464,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>26</v>
@@ -35538,7 +35538,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>26</v>
@@ -35612,7 +35612,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>59</v>
@@ -35686,7 +35686,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>26</v>
@@ -35760,7 +35760,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>91</v>
@@ -35834,7 +35834,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>26</v>
@@ -35908,7 +35908,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>62</v>
@@ -35982,7 +35982,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>26</v>
@@ -36056,7 +36056,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>26</v>
@@ -36130,7 +36130,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>59</v>
@@ -36204,7 +36204,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>269</v>
@@ -36278,7 +36278,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>26</v>
@@ -36352,7 +36352,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>26</v>
@@ -36426,7 +36426,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>26</v>
@@ -36500,7 +36500,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>26</v>
@@ -36574,7 +36574,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>26</v>
@@ -36648,7 +36648,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>26</v>
@@ -36722,7 +36722,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>26</v>
@@ -36796,7 +36796,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>26</v>
@@ -36870,7 +36870,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>26</v>
@@ -36944,7 +36944,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>62</v>
@@ -37018,7 +37018,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>26</v>
@@ -37092,7 +37092,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>26</v>
@@ -37166,7 +37166,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>26</v>
@@ -37240,7 +37240,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>26</v>
@@ -37282,7 +37282,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>26</v>
@@ -37356,10 +37356,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>112</v>
@@ -37430,7 +37430,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>26</v>
@@ -37504,7 +37504,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>26</v>
@@ -37578,7 +37578,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>26</v>
@@ -37652,7 +37652,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>180</v>
@@ -37726,7 +37726,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>59</v>
@@ -37800,10 +37800,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>60</v>
@@ -37874,7 +37874,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>67</v>
@@ -37948,10 +37948,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>35</v>
@@ -38022,7 +38022,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>26</v>
@@ -38096,13 +38096,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>39</v>
@@ -38170,7 +38170,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>26</v>
@@ -38244,7 +38244,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>91</v>
@@ -38318,7 +38318,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>26</v>
@@ -38392,7 +38392,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>91</v>
@@ -38466,7 +38466,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>59</v>
@@ -38540,7 +38540,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>26</v>
@@ -38614,7 +38614,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>26</v>
@@ -38688,7 +38688,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>26</v>
@@ -38762,7 +38762,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>59</v>
@@ -38836,7 +38836,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>45</v>
@@ -38910,7 +38910,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>26</v>
@@ -38984,7 +38984,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>26</v>
@@ -39058,7 +39058,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>26</v>
@@ -39132,10 +39132,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>585</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>35</v>
@@ -39206,10 +39206,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>112</v>
@@ -39280,7 +39280,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>26</v>
@@ -39354,7 +39354,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>26</v>
@@ -39428,7 +39428,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>26</v>
@@ -39502,7 +39502,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>26</v>
@@ -39576,7 +39576,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>26</v>

--- a/data/league_data/spain/21/spain_shot_creation.xlsx
+++ b/data/league_data/spain/21/spain_shot_creation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0938658F-F397-F14B-915A-D85AF3F26529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8816F239-FB0C-FE4E-BA76-CF860783521C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -211,9 +211,6 @@
     <t>fr FRA</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1811,6 +1808,9 @@
   </si>
   <si>
     <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2677,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4268,16 +4268,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3">
         <v>21</v>
@@ -4342,10 +4342,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>35</v>
@@ -4416,7 +4416,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>62</v>
@@ -4425,7 +4425,7 @@
         <v>38</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3">
         <v>21</v>
@@ -4490,16 +4490,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3">
         <v>31</v>
@@ -4564,16 +4564,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="3">
         <v>29</v>
@@ -4638,7 +4638,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>26</v>
@@ -4712,7 +4712,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>26</v>
@@ -4786,7 +4786,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>26</v>
@@ -4860,10 +4860,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>38</v>
@@ -4934,10 +4934,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>38</v>
@@ -5008,7 +5008,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>26</v>
@@ -5017,7 +5017,7 @@
         <v>38</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="3">
         <v>31</v>
@@ -5082,7 +5082,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>62</v>
@@ -5156,10 +5156,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>35</v>
@@ -5230,7 +5230,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>26</v>
@@ -5304,7 +5304,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>59</v>
@@ -5313,7 +5313,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="3">
         <v>27</v>
@@ -5378,7 +5378,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
@@ -5452,16 +5452,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="3">
         <v>26</v>
@@ -5526,7 +5526,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
@@ -5535,7 +5535,7 @@
         <v>50</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" s="3">
         <v>32</v>
@@ -5600,7 +5600,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
@@ -5609,7 +5609,7 @@
         <v>35</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40" s="3">
         <v>23</v>
@@ -5674,7 +5674,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>59</v>
@@ -5683,7 +5683,7 @@
         <v>35</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="3">
         <v>26</v>
@@ -5748,7 +5748,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>26</v>
@@ -5757,7 +5757,7 @@
         <v>35</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F42" s="3">
         <v>26</v>
@@ -5822,7 +5822,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>26</v>
@@ -5831,7 +5831,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="3">
         <v>25</v>
@@ -5896,7 +5896,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>26</v>
@@ -5905,7 +5905,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44" s="3">
         <v>34</v>
@@ -5970,7 +5970,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>26</v>
@@ -6044,16 +6044,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" s="3">
         <v>27</v>
@@ -6118,10 +6118,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>20</v>
@@ -6192,7 +6192,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>26</v>
@@ -6201,7 +6201,7 @@
         <v>38</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="3">
         <v>28</v>
@@ -6266,7 +6266,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>62</v>
@@ -6340,10 +6340,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>35</v>
@@ -6414,7 +6414,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>26</v>
@@ -6423,7 +6423,7 @@
         <v>35</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F51" s="3">
         <v>23</v>
@@ -6488,7 +6488,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>45</v>
@@ -6562,13 +6562,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>39</v>
@@ -6636,16 +6636,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F54" s="3">
         <v>29</v>
@@ -6710,7 +6710,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>62</v>
@@ -6784,7 +6784,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>26</v>
@@ -6793,7 +6793,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" s="3">
         <v>28</v>
@@ -6858,16 +6858,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F57" s="3">
         <v>28</v>
@@ -6932,16 +6932,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F58" s="3">
         <v>25</v>
@@ -7006,7 +7006,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>59</v>
@@ -7015,7 +7015,7 @@
         <v>50</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F59" s="3">
         <v>24</v>
@@ -7080,16 +7080,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F60" s="3">
         <v>23</v>
@@ -7154,16 +7154,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F61" s="3">
         <v>23</v>
@@ -7228,7 +7228,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>26</v>
@@ -7302,7 +7302,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>62</v>
@@ -7311,7 +7311,7 @@
         <v>38</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="3">
         <v>27</v>
@@ -7376,7 +7376,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>26</v>
@@ -7450,7 +7450,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>59</v>
@@ -7459,7 +7459,7 @@
         <v>35</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F65" s="3">
         <v>30</v>
@@ -7524,16 +7524,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F66" s="3">
         <v>26</v>
@@ -7598,10 +7598,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>38</v>
@@ -7672,7 +7672,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>26</v>
@@ -7681,7 +7681,7 @@
         <v>38</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="3">
         <v>33</v>
@@ -7746,7 +7746,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>26</v>
@@ -7820,7 +7820,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>59</v>
@@ -7829,7 +7829,7 @@
         <v>50</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F70" s="3">
         <v>26</v>
@@ -7894,16 +7894,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F71" s="3">
         <v>27</v>
@@ -7968,16 +7968,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F72" s="3">
         <v>27</v>
@@ -8042,7 +8042,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>26</v>
@@ -8051,7 +8051,7 @@
         <v>20</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F73" s="3">
         <v>29</v>
@@ -8116,10 +8116,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>38</v>
@@ -8190,16 +8190,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F75" s="3">
         <v>28</v>
@@ -8264,7 +8264,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>62</v>
@@ -8338,7 +8338,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>26</v>
@@ -8347,7 +8347,7 @@
         <v>38</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F77" s="3">
         <v>29</v>
@@ -8412,16 +8412,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F78" s="3">
         <v>33</v>
@@ -8486,7 +8486,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>26</v>
@@ -8495,7 +8495,7 @@
         <v>38</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F79" s="3">
         <v>27</v>
@@ -8560,7 +8560,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>26</v>
@@ -8634,7 +8634,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>26</v>
@@ -8708,13 +8708,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>33</v>
@@ -8782,7 +8782,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>26</v>
@@ -8856,16 +8856,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F84" s="3">
         <v>33</v>
@@ -8930,13 +8930,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>52</v>
@@ -9004,7 +9004,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>26</v>
@@ -9078,7 +9078,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>26</v>
@@ -9152,7 +9152,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>26</v>
@@ -9161,7 +9161,7 @@
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F88" s="3">
         <v>29</v>
@@ -9226,7 +9226,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>26</v>
@@ -9300,16 +9300,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F90" s="3">
         <v>29</v>
@@ -9374,7 +9374,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>26</v>
@@ -9448,10 +9448,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>50</v>
@@ -9522,16 +9522,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F93" s="3">
         <v>29</v>
@@ -9596,7 +9596,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>59</v>
@@ -9670,7 +9670,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>62</v>
@@ -9744,10 +9744,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>38</v>
@@ -9818,7 +9818,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>26</v>
@@ -9892,7 +9892,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>26</v>
@@ -9901,7 +9901,7 @@
         <v>60</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F98" s="3">
         <v>33</v>
@@ -9966,16 +9966,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F99" s="3">
         <v>28</v>
@@ -10040,10 +10040,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>38</v>
@@ -10114,7 +10114,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>26</v>
@@ -10123,7 +10123,7 @@
         <v>50</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F101" s="3">
         <v>24</v>
@@ -10188,7 +10188,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>26</v>
@@ -10262,7 +10262,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>26</v>
@@ -10336,7 +10336,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>26</v>
@@ -10345,7 +10345,7 @@
         <v>35</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F104" s="3">
         <v>26</v>
@@ -10410,7 +10410,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>59</v>
@@ -10484,7 +10484,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>26</v>
@@ -10493,7 +10493,7 @@
         <v>42</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F106" s="3">
         <v>30</v>
@@ -10558,16 +10558,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F107" s="3">
         <v>28</v>
@@ -10632,7 +10632,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>26</v>
@@ -10706,7 +10706,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>26</v>
@@ -10780,7 +10780,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>26</v>
@@ -10854,16 +10854,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F111" s="3">
         <v>25</v>
@@ -10928,7 +10928,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>26</v>
@@ -11002,10 +11002,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>50</v>
@@ -11076,16 +11076,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F114" s="3">
         <v>24</v>
@@ -11150,7 +11150,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>59</v>
@@ -11159,7 +11159,7 @@
         <v>38</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F115" s="3">
         <v>28</v>
@@ -11224,10 +11224,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>35</v>
@@ -11298,10 +11298,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>42</v>
@@ -11372,16 +11372,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F118" s="3">
         <v>23</v>
@@ -11446,16 +11446,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F119" s="3">
         <v>22</v>
@@ -11520,16 +11520,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F120" s="3">
         <v>26</v>
@@ -11594,16 +11594,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F121" s="3">
         <v>23</v>
@@ -11668,13 +11668,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>31</v>
@@ -11742,13 +11742,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>46</v>
@@ -11816,7 +11816,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>26</v>
@@ -11825,7 +11825,7 @@
         <v>38</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F124" s="3">
         <v>30</v>
@@ -11890,7 +11890,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>26</v>
@@ -11899,7 +11899,7 @@
         <v>38</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F125" s="3">
         <v>30</v>
@@ -11964,7 +11964,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>26</v>
@@ -11973,7 +11973,7 @@
         <v>20</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F126" s="3">
         <v>31</v>
@@ -12038,7 +12038,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>26</v>
@@ -12047,7 +12047,7 @@
         <v>38</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F127" s="3">
         <v>33</v>
@@ -12112,16 +12112,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F128" s="3">
         <v>32</v>
@@ -12186,7 +12186,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>26</v>
@@ -12195,7 +12195,7 @@
         <v>50</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F129" s="3">
         <v>26</v>
@@ -12260,7 +12260,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>62</v>
@@ -12334,7 +12334,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>26</v>
@@ -12343,7 +12343,7 @@
         <v>50</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F131" s="3">
         <v>29</v>
@@ -12408,7 +12408,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>26</v>
@@ -12417,7 +12417,7 @@
         <v>50</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F132" s="3">
         <v>34</v>
@@ -12482,16 +12482,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F133" s="3">
         <v>23</v>
@@ -12556,7 +12556,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>26</v>
@@ -12630,13 +12630,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>46</v>
@@ -12704,7 +12704,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>45</v>
@@ -12713,7 +12713,7 @@
         <v>35</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F136" s="3">
         <v>22</v>
@@ -12778,7 +12778,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>26</v>
@@ -12852,13 +12852,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>24</v>
@@ -12926,7 +12926,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>26</v>
@@ -12935,7 +12935,7 @@
         <v>35</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F139" s="3">
         <v>29</v>
@@ -13000,7 +13000,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>26</v>
@@ -13009,7 +13009,7 @@
         <v>60</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F140" s="3">
         <v>28</v>
@@ -13074,7 +13074,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>26</v>
@@ -13083,7 +13083,7 @@
         <v>38</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F141" s="3">
         <v>31</v>
@@ -13148,7 +13148,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>26</v>
@@ -13222,16 +13222,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="D143" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F143" s="3">
         <v>34</v>
@@ -13296,7 +13296,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>26</v>
@@ -13370,16 +13370,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F145" s="3">
         <v>21</v>
@@ -13444,16 +13444,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F146" s="3">
         <v>24</v>
@@ -13518,10 +13518,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>35</v>
@@ -13592,7 +13592,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>26</v>
@@ -13666,7 +13666,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>26</v>
@@ -13740,13 +13740,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>29</v>
@@ -13814,7 +13814,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>26</v>
@@ -13888,7 +13888,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>26</v>
@@ -13962,7 +13962,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>62</v>
@@ -13971,7 +13971,7 @@
         <v>38</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F153" s="3">
         <v>23</v>
@@ -14036,7 +14036,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>26</v>
@@ -14110,7 +14110,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>26</v>
@@ -14184,7 +14184,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>26</v>
@@ -14193,7 +14193,7 @@
         <v>38</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F156" s="3">
         <v>24</v>
@@ -14258,16 +14258,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F157" s="3">
         <v>31</v>
@@ -14332,10 +14332,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>38</v>
@@ -14406,7 +14406,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>26</v>
@@ -14480,7 +14480,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>26</v>
@@ -14554,7 +14554,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>26</v>
@@ -14628,7 +14628,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>26</v>
@@ -14702,10 +14702,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>38</v>
@@ -14776,16 +14776,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F164" s="3">
         <v>27</v>
@@ -14850,16 +14850,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F165" s="3">
         <v>23</v>
@@ -14924,7 +14924,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>26</v>
@@ -14998,7 +14998,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>26</v>
@@ -15007,7 +15007,7 @@
         <v>38</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F167" s="3">
         <v>20</v>
@@ -15072,7 +15072,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>26</v>
@@ -15146,7 +15146,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>26</v>
@@ -15155,7 +15155,7 @@
         <v>60</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F169" s="3">
         <v>27</v>
@@ -15220,10 +15220,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>50</v>
@@ -15294,7 +15294,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>26</v>
@@ -15368,7 +15368,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>26</v>
@@ -15377,7 +15377,7 @@
         <v>38</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F172" s="3">
         <v>24</v>
@@ -15442,7 +15442,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>26</v>
@@ -15516,7 +15516,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>26</v>
@@ -15590,7 +15590,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>26</v>
@@ -15664,7 +15664,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>26</v>
@@ -15673,7 +15673,7 @@
         <v>35</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F176" s="3">
         <v>27</v>
@@ -15738,13 +15738,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>31</v>
@@ -15812,16 +15812,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F178" s="3">
         <v>29</v>
@@ -15886,7 +15886,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>26</v>
@@ -15895,7 +15895,7 @@
         <v>42</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F179" s="3">
         <v>30</v>
@@ -15960,7 +15960,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>26</v>
@@ -16034,10 +16034,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>38</v>
@@ -16108,7 +16108,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>26</v>
@@ -16182,13 +16182,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>39</v>
@@ -16256,7 +16256,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>26</v>
@@ -16330,7 +16330,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>26</v>
@@ -16404,7 +16404,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>26</v>
@@ -16478,7 +16478,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>26</v>
@@ -16552,16 +16552,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F188" s="3">
         <v>26</v>
@@ -16626,13 +16626,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>21</v>
@@ -16700,7 +16700,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>59</v>
@@ -16709,7 +16709,7 @@
         <v>38</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F190" s="3">
         <v>29</v>
@@ -16774,13 +16774,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="D191" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>46</v>
@@ -16848,7 +16848,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>26</v>
@@ -16857,7 +16857,7 @@
         <v>38</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F192" s="3">
         <v>31</v>
@@ -16922,16 +16922,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F193" s="3">
         <v>37</v>
@@ -16996,7 +16996,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>26</v>
@@ -17005,7 +17005,7 @@
         <v>38</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F194" s="3">
         <v>24</v>
@@ -17070,7 +17070,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>26</v>
@@ -17079,7 +17079,7 @@
         <v>50</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F195" s="3">
         <v>29</v>
@@ -17144,7 +17144,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>26</v>
@@ -17153,7 +17153,7 @@
         <v>38</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F196" s="3">
         <v>26</v>
@@ -17218,7 +17218,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>26</v>
@@ -17227,7 +17227,7 @@
         <v>38</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F197" s="3">
         <v>27</v>
@@ -17292,7 +17292,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>26</v>
@@ -17301,7 +17301,7 @@
         <v>20</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F198" s="3">
         <v>23</v>
@@ -17366,13 +17366,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>43</v>
@@ -17440,10 +17440,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>38</v>
@@ -17514,7 +17514,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>26</v>
@@ -17523,7 +17523,7 @@
         <v>35</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F201" s="3">
         <v>31</v>
@@ -17588,7 +17588,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>26</v>
@@ -17662,7 +17662,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>26</v>
@@ -17736,7 +17736,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>26</v>
@@ -17745,7 +17745,7 @@
         <v>38</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F204" s="3">
         <v>31</v>
@@ -17810,7 +17810,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>26</v>
@@ -17884,7 +17884,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>26</v>
@@ -17958,7 +17958,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>26</v>
@@ -18032,7 +18032,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>26</v>
@@ -18041,7 +18041,7 @@
         <v>38</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F208" s="3">
         <v>29</v>
@@ -18106,16 +18106,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C209" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="D209" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F209" s="3">
         <v>25</v>
@@ -18180,7 +18180,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>26</v>
@@ -18254,7 +18254,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>26</v>
@@ -18263,7 +18263,7 @@
         <v>50</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F211" s="3">
         <v>22</v>
@@ -18328,16 +18328,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F212" s="3">
         <v>22</v>
@@ -18402,7 +18402,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>26</v>
@@ -18411,7 +18411,7 @@
         <v>38</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F213" s="3">
         <v>20</v>
@@ -18476,7 +18476,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>26</v>
@@ -18485,7 +18485,7 @@
         <v>20</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F214" s="3">
         <v>25</v>
@@ -18550,10 +18550,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>50</v>
@@ -18624,7 +18624,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>26</v>
@@ -18633,7 +18633,7 @@
         <v>38</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F216" s="3">
         <v>31</v>
@@ -18698,7 +18698,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>26</v>
@@ -18707,7 +18707,7 @@
         <v>20</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F217" s="3">
         <v>30</v>
@@ -18772,7 +18772,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>26</v>
@@ -18781,7 +18781,7 @@
         <v>60</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F218" s="3">
         <v>38</v>
@@ -18846,16 +18846,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F219" s="3">
         <v>26</v>
@@ -18920,7 +18920,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>26</v>
@@ -18929,7 +18929,7 @@
         <v>60</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F220" s="3">
         <v>24</v>
@@ -18994,7 +18994,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>26</v>
@@ -19068,7 +19068,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>26</v>
@@ -19142,10 +19142,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>60</v>
@@ -19216,7 +19216,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>26</v>
@@ -19290,13 +19290,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>29</v>
@@ -19364,7 +19364,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>26</v>
@@ -19438,7 +19438,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>59</v>
@@ -19512,7 +19512,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>26</v>
@@ -19521,7 +19521,7 @@
         <v>35</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F228" s="3">
         <v>29</v>
@@ -19586,7 +19586,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>26</v>
@@ -19660,7 +19660,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>26</v>
@@ -19669,7 +19669,7 @@
         <v>38</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F230" s="3">
         <v>23</v>
@@ -19734,7 +19734,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>26</v>
@@ -19808,16 +19808,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F232" s="3">
         <v>17</v>
@@ -19882,16 +19882,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F233" s="3">
         <v>27</v>
@@ -19956,13 +19956,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>31</v>
@@ -20030,10 +20030,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>38</v>
@@ -20104,7 +20104,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>26</v>
@@ -20178,7 +20178,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>62</v>
@@ -20187,7 +20187,7 @@
         <v>35</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F237" s="3">
         <v>31</v>
@@ -20252,10 +20252,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>60</v>
@@ -20326,16 +20326,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F239" s="3">
         <v>24</v>
@@ -20400,7 +20400,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>26</v>
@@ -20409,7 +20409,7 @@
         <v>35</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F240" s="3">
         <v>23</v>
@@ -20474,7 +20474,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>26</v>
@@ -20483,7 +20483,7 @@
         <v>35</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F241" s="3">
         <v>32</v>
@@ -20548,7 +20548,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>26</v>
@@ -20622,7 +20622,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>26</v>
@@ -20631,7 +20631,7 @@
         <v>50</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F243" s="3">
         <v>35</v>
@@ -20696,13 +20696,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>39</v>
@@ -20770,7 +20770,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>26</v>
@@ -20844,16 +20844,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F246" s="3">
         <v>25</v>
@@ -20918,7 +20918,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>26</v>
@@ -20927,7 +20927,7 @@
         <v>50</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F247" s="3">
         <v>27</v>
@@ -20992,7 +20992,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>26</v>
@@ -21066,7 +21066,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>26</v>
@@ -21075,7 +21075,7 @@
         <v>35</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F249" s="3">
         <v>29</v>
@@ -21140,16 +21140,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F250" s="3">
         <v>25</v>
@@ -21214,7 +21214,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>26</v>
@@ -21223,7 +21223,7 @@
         <v>35</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F251" s="3">
         <v>21</v>
@@ -21288,7 +21288,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>26</v>
@@ -21362,7 +21362,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>26</v>
@@ -21436,7 +21436,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>26</v>
@@ -21510,7 +21510,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>26</v>
@@ -21584,16 +21584,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F256" s="3">
         <v>28</v>
@@ -21658,13 +21658,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>36</v>
@@ -21732,13 +21732,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="D258" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>33</v>
@@ -21806,13 +21806,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>24</v>
@@ -21880,7 +21880,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>26</v>
@@ -21889,7 +21889,7 @@
         <v>35</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F260" s="3">
         <v>32</v>
@@ -21954,13 +21954,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>31</v>
@@ -22028,7 +22028,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>26</v>
@@ -22102,7 +22102,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>26</v>
@@ -22111,7 +22111,7 @@
         <v>38</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F263" s="3">
         <v>23</v>
@@ -22176,10 +22176,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>35</v>
@@ -22250,16 +22250,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F265" s="3">
         <v>22</v>
@@ -22324,10 +22324,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>38</v>
@@ -22398,16 +22398,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F267" s="3">
         <v>33</v>
@@ -22472,10 +22472,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>50</v>
@@ -22546,13 +22546,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>27</v>
@@ -22620,7 +22620,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>26</v>
@@ -22629,7 +22629,7 @@
         <v>38</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F270" s="3">
         <v>25</v>
@@ -22694,16 +22694,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F271" s="3">
         <v>24</v>
@@ -22768,7 +22768,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>26</v>
@@ -22777,7 +22777,7 @@
         <v>60</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F272" s="3">
         <v>39</v>
@@ -22842,7 +22842,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>26</v>
@@ -22916,7 +22916,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>26</v>
@@ -22925,7 +22925,7 @@
         <v>60</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F274" s="3">
         <v>28</v>
@@ -22990,7 +22990,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>26</v>
@@ -22999,7 +22999,7 @@
         <v>38</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F275" s="3">
         <v>25</v>
@@ -23064,7 +23064,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>26</v>
@@ -23073,7 +23073,7 @@
         <v>42</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F276" s="3">
         <v>26</v>
@@ -23138,7 +23138,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>26</v>
@@ -23212,7 +23212,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>41</v>
@@ -23221,7 +23221,7 @@
         <v>50</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F278" s="3">
         <v>29</v>
@@ -23286,16 +23286,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F279" s="3">
         <v>19</v>
@@ -23360,16 +23360,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F280" s="3">
         <v>26</v>
@@ -23434,7 +23434,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>26</v>
@@ -23443,7 +23443,7 @@
         <v>35</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F281" s="3">
         <v>25</v>
@@ -23508,7 +23508,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>26</v>
@@ -23582,7 +23582,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>59</v>
@@ -23656,16 +23656,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F284" s="3">
         <v>28</v>
@@ -23730,16 +23730,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F285" s="3">
         <v>24</v>
@@ -23804,16 +23804,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F286" s="3">
         <v>27</v>
@@ -23878,16 +23878,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F287" s="3">
         <v>27</v>
@@ -23952,7 +23952,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>26</v>
@@ -24026,7 +24026,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>62</v>
@@ -24100,7 +24100,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>26</v>
@@ -24174,7 +24174,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>26</v>
@@ -24183,7 +24183,7 @@
         <v>38</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F291" s="3">
         <v>30</v>
@@ -24248,10 +24248,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>50</v>
@@ -24322,16 +24322,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F293" s="3">
         <v>23</v>
@@ -24396,10 +24396,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>38</v>
@@ -24470,13 +24470,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>33</v>
@@ -24544,7 +24544,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>26</v>
@@ -24553,7 +24553,7 @@
         <v>20</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F296" s="3">
         <v>34</v>
@@ -24618,7 +24618,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>26</v>
@@ -24627,7 +24627,7 @@
         <v>35</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F297" s="3">
         <v>23</v>
@@ -24692,16 +24692,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F298" s="3">
         <v>27</v>
@@ -24766,7 +24766,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>26</v>
@@ -24840,10 +24840,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>38</v>
@@ -24914,10 +24914,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>38</v>
@@ -24988,7 +24988,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>26</v>
@@ -25062,10 +25062,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>38</v>
@@ -25136,10 +25136,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>60</v>
@@ -25210,10 +25210,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>60</v>
@@ -25284,7 +25284,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>45</v>
@@ -25293,7 +25293,7 @@
         <v>35</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F306" s="3">
         <v>27</v>
@@ -25358,13 +25358,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E307" s="3" t="s">
         <v>52</v>
@@ -25432,13 +25432,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>33</v>
@@ -25506,7 +25506,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>26</v>
@@ -25515,7 +25515,7 @@
         <v>60</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F309" s="3">
         <v>28</v>
@@ -25580,7 +25580,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>59</v>
@@ -25654,16 +25654,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F311" s="3">
         <v>26</v>
@@ -25728,16 +25728,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F312" s="3">
         <v>29</v>
@@ -25802,10 +25802,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>42</v>
@@ -25876,7 +25876,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>62</v>
@@ -25885,7 +25885,7 @@
         <v>50</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F314" s="3">
         <v>33</v>
@@ -25950,7 +25950,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>26</v>
@@ -26024,10 +26024,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>38</v>
@@ -26098,7 +26098,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>45</v>
@@ -26107,7 +26107,7 @@
         <v>42</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F317" s="3">
         <v>28</v>
@@ -26172,7 +26172,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>26</v>
@@ -26246,7 +26246,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>19</v>
@@ -26320,7 +26320,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>59</v>
@@ -26329,7 +26329,7 @@
         <v>50</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F320" s="3">
         <v>29</v>
@@ -26394,7 +26394,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>26</v>
@@ -26403,7 +26403,7 @@
         <v>60</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F321" s="3">
         <v>26</v>
@@ -26468,10 +26468,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>50</v>
@@ -26542,7 +26542,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>26</v>
@@ -26616,16 +26616,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F324" s="3">
         <v>25</v>
@@ -26690,7 +26690,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>26</v>
@@ -26764,7 +26764,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>26</v>
@@ -26773,7 +26773,7 @@
         <v>60</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F326" s="3">
         <v>23</v>
@@ -26838,7 +26838,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>26</v>
@@ -26847,7 +26847,7 @@
         <v>35</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F327" s="3">
         <v>32</v>
@@ -26912,13 +26912,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>43</v>
@@ -26986,13 +26986,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>46</v>
@@ -27060,16 +27060,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F330" s="3">
         <v>24</v>
@@ -27134,7 +27134,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>26</v>
@@ -27208,16 +27208,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F332" s="3">
         <v>32</v>
@@ -27282,7 +27282,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>26</v>
@@ -27356,7 +27356,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>26</v>
@@ -27365,7 +27365,7 @@
         <v>38</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F334" s="3">
         <v>23</v>
@@ -27430,7 +27430,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>26</v>
@@ -27439,7 +27439,7 @@
         <v>38</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F335" s="3">
         <v>31</v>
@@ -27504,7 +27504,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>45</v>
@@ -27578,13 +27578,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>21</v>
@@ -27652,7 +27652,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>26</v>
@@ -27726,10 +27726,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>38</v>
@@ -27800,7 +27800,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>41</v>
@@ -27809,7 +27809,7 @@
         <v>20</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F340" s="3">
         <v>31</v>
@@ -27874,7 +27874,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>26</v>
@@ -27948,7 +27948,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>26</v>
@@ -28022,10 +28022,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>50</v>
@@ -28096,13 +28096,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>39</v>
@@ -28170,16 +28170,16 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F345" s="3">
         <v>27</v>
@@ -28244,16 +28244,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F346" s="3">
         <v>20</v>
@@ -28318,7 +28318,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>45</v>
@@ -28327,7 +28327,7 @@
         <v>60</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F347" s="3">
         <v>27</v>
@@ -28392,7 +28392,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>26</v>
@@ -28466,16 +28466,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F349" s="3">
         <v>24</v>
@@ -28540,7 +28540,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>26</v>
@@ -28614,7 +28614,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>26</v>
@@ -28688,7 +28688,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>26</v>
@@ -28697,7 +28697,7 @@
         <v>38</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F352" s="3">
         <v>33</v>
@@ -28762,16 +28762,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F353" s="3">
         <v>25</v>
@@ -28836,7 +28836,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>26</v>
@@ -28845,7 +28845,7 @@
         <v>38</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F354" s="3">
         <v>32</v>
@@ -28910,7 +28910,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>26</v>
@@ -28984,7 +28984,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>26</v>
@@ -29058,7 +29058,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>26</v>
@@ -29132,16 +29132,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F358" s="3">
         <v>28</v>
@@ -29206,7 +29206,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>26</v>
@@ -29215,7 +29215,7 @@
         <v>35</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F359" s="3">
         <v>30</v>
@@ -29280,13 +29280,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>36</v>
@@ -29354,7 +29354,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>26</v>
@@ -29428,13 +29428,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>52</v>
@@ -29502,16 +29502,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F363" s="3">
         <v>26</v>
@@ -29576,10 +29576,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>50</v>
@@ -29650,10 +29650,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>35</v>
@@ -29724,16 +29724,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F366" s="3">
         <v>26</v>
@@ -29798,7 +29798,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>26</v>
@@ -29807,7 +29807,7 @@
         <v>35</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F367" s="3">
         <v>27</v>
@@ -29872,7 +29872,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>26</v>
@@ -29881,7 +29881,7 @@
         <v>50</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F368" s="3">
         <v>31</v>
@@ -29946,16 +29946,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F369" s="3">
         <v>27</v>
@@ -30020,7 +30020,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>62</v>
@@ -30094,7 +30094,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>59</v>
@@ -30103,7 +30103,7 @@
         <v>38</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F371" s="3">
         <v>20</v>
@@ -30168,7 +30168,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>26</v>
@@ -30242,7 +30242,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>59</v>
@@ -30316,7 +30316,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>26</v>
@@ -30325,7 +30325,7 @@
         <v>38</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F374" s="3">
         <v>22</v>
@@ -30390,7 +30390,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>26</v>
@@ -30399,7 +30399,7 @@
         <v>38</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F375" s="3">
         <v>30</v>
@@ -30464,7 +30464,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>26</v>
@@ -30473,7 +30473,7 @@
         <v>20</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F376" s="3">
         <v>23</v>
@@ -30538,7 +30538,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>59</v>
@@ -30547,7 +30547,7 @@
         <v>20</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F377" s="3">
         <v>28</v>
@@ -30612,7 +30612,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>26</v>
@@ -30621,7 +30621,7 @@
         <v>38</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F378" s="3">
         <v>28</v>
@@ -30686,10 +30686,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>60</v>
@@ -30760,10 +30760,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>50</v>
@@ -30834,16 +30834,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F381" s="3">
         <v>30</v>
@@ -30908,10 +30908,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>35</v>
@@ -30982,16 +30982,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F383" s="3">
         <v>21</v>
@@ -31024,13 +31024,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>43</v>
@@ -31098,7 +31098,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>41</v>
@@ -31107,7 +31107,7 @@
         <v>38</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F385" s="3">
         <v>25</v>
@@ -31172,7 +31172,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>26</v>
@@ -31181,7 +31181,7 @@
         <v>38</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F386" s="3">
         <v>20</v>
@@ -31246,7 +31246,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>26</v>
@@ -31320,7 +31320,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>62</v>
@@ -31394,7 +31394,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>26</v>
@@ -31468,10 +31468,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>20</v>
@@ -31542,10 +31542,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>35</v>
@@ -31616,13 +31616,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>27</v>
@@ -31690,13 +31690,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>482</v>
-      </c>
       <c r="D393" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>24</v>
@@ -31764,10 +31764,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>38</v>
@@ -31838,13 +31838,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>36</v>
@@ -31912,7 +31912,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>26</v>
@@ -31921,7 +31921,7 @@
         <v>60</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F396" s="3">
         <v>27</v>
@@ -31986,10 +31986,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>38</v>
@@ -32060,7 +32060,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>26</v>
@@ -32134,7 +32134,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>26</v>
@@ -32143,7 +32143,7 @@
         <v>38</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F399" s="3">
         <v>30</v>
@@ -32208,7 +32208,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>26</v>
@@ -32217,7 +32217,7 @@
         <v>35</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F400" s="3">
         <v>21</v>
@@ -32282,7 +32282,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>26</v>
@@ -32291,7 +32291,7 @@
         <v>38</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F401" s="3">
         <v>30</v>
@@ -32356,13 +32356,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>36</v>
@@ -32430,7 +32430,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>26</v>
@@ -32439,7 +32439,7 @@
         <v>38</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F403" s="3">
         <v>27</v>
@@ -32504,7 +32504,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>26</v>
@@ -32578,16 +32578,16 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F405" s="3">
         <v>20</v>
@@ -32652,7 +32652,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>26</v>
@@ -32726,13 +32726,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>29</v>
@@ -32800,7 +32800,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>26</v>
@@ -32809,7 +32809,7 @@
         <v>60</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F408" s="3">
         <v>20</v>
@@ -32874,7 +32874,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>19</v>
@@ -32948,7 +32948,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>26</v>
@@ -32957,7 +32957,7 @@
         <v>60</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F410" s="3">
         <v>26</v>
@@ -33022,13 +33022,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>24</v>
@@ -33096,10 +33096,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>38</v>
@@ -33170,10 +33170,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>50</v>
@@ -33244,16 +33244,16 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F414" s="3">
         <v>22</v>
@@ -33318,16 +33318,16 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F415" s="3">
         <v>31</v>
@@ -33392,13 +33392,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>27</v>
@@ -33466,16 +33466,16 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F417" s="3">
         <v>23</v>
@@ -33540,16 +33540,16 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F418" s="3">
         <v>30</v>
@@ -33614,7 +33614,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>59</v>
@@ -33623,7 +33623,7 @@
         <v>35</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F419" s="3">
         <v>28</v>
@@ -33688,7 +33688,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>26</v>
@@ -33762,10 +33762,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>38</v>
@@ -33836,16 +33836,16 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F422" s="3">
         <v>26</v>
@@ -33910,13 +33910,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>39</v>
@@ -33984,16 +33984,16 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F424" s="3">
         <v>26</v>
@@ -34058,7 +34058,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>26</v>
@@ -34067,7 +34067,7 @@
         <v>38</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F425" s="3">
         <v>29</v>
@@ -34132,7 +34132,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>26</v>
@@ -34141,7 +34141,7 @@
         <v>20</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F426" s="3">
         <v>24</v>
@@ -34206,13 +34206,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>29</v>
@@ -34280,16 +34280,16 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F428" s="3">
         <v>31</v>
@@ -34354,7 +34354,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>26</v>
@@ -34428,7 +34428,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>26</v>
@@ -34437,7 +34437,7 @@
         <v>42</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F430" s="3">
         <v>26</v>
@@ -34502,16 +34502,16 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F431" s="3">
         <v>27</v>
@@ -34576,7 +34576,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>26</v>
@@ -34650,7 +34650,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>26</v>
@@ -34724,7 +34724,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>26</v>
@@ -34733,7 +34733,7 @@
         <v>35</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F434" s="3">
         <v>31</v>
@@ -34798,13 +34798,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>36</v>
@@ -34872,7 +34872,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>26</v>
@@ -34881,7 +34881,7 @@
         <v>60</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F436" s="3">
         <v>29</v>
@@ -34946,7 +34946,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>26</v>
@@ -34955,7 +34955,7 @@
         <v>60</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F437" s="3">
         <v>21</v>
@@ -35020,7 +35020,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>26</v>
@@ -35094,7 +35094,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>45</v>
@@ -35103,7 +35103,7 @@
         <v>50</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F439" s="3">
         <v>22</v>
@@ -35168,16 +35168,16 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F440" s="3">
         <v>22</v>
@@ -35242,7 +35242,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>26</v>
@@ -35251,7 +35251,7 @@
         <v>60</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F441" s="3">
         <v>24</v>
@@ -35316,7 +35316,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>26</v>
@@ -35390,7 +35390,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>59</v>
@@ -35399,7 +35399,7 @@
         <v>35</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F443" s="3">
         <v>34</v>
@@ -35464,7 +35464,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>26</v>
@@ -35473,7 +35473,7 @@
         <v>38</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F444" s="3">
         <v>19</v>
@@ -35538,7 +35538,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>26</v>
@@ -35547,7 +35547,7 @@
         <v>20</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F445" s="3">
         <v>26</v>
@@ -35612,16 +35612,16 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F446" s="3">
         <v>31</v>
@@ -35686,13 +35686,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>33</v>
@@ -35760,16 +35760,16 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F448" s="3">
         <v>20</v>
@@ -35834,7 +35834,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>26</v>
@@ -35908,7 +35908,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>62</v>
@@ -35917,7 +35917,7 @@
         <v>38</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F450" s="3">
         <v>29</v>
@@ -35982,7 +35982,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>26</v>
@@ -36056,7 +36056,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>26</v>
@@ -36130,7 +36130,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>59</v>
@@ -36139,7 +36139,7 @@
         <v>50</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F453" s="3">
         <v>29</v>
@@ -36204,13 +36204,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>33</v>
@@ -36278,13 +36278,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>24</v>
@@ -36352,7 +36352,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>26</v>
@@ -36426,13 +36426,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E457" s="3" t="s">
         <v>52</v>
@@ -36500,7 +36500,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>26</v>
@@ -36574,16 +36574,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F459" s="3">
         <v>40</v>
@@ -36648,7 +36648,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>26</v>
@@ -36722,16 +36722,16 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F461" s="3">
         <v>23</v>
@@ -36796,7 +36796,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>26</v>
@@ -36870,7 +36870,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>26</v>
@@ -36879,7 +36879,7 @@
         <v>38</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F463" s="3">
         <v>19</v>
@@ -36944,7 +36944,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>62</v>
@@ -36953,7 +36953,7 @@
         <v>35</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F464" s="3">
         <v>25</v>
@@ -37018,13 +37018,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E465" s="3" t="s">
         <v>29</v>
@@ -37092,7 +37092,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>26</v>
@@ -37101,7 +37101,7 @@
         <v>38</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F466" s="3">
         <v>20</v>
@@ -37166,7 +37166,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>26</v>
@@ -37175,7 +37175,7 @@
         <v>38</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F467" s="3">
         <v>29</v>
@@ -37240,7 +37240,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>26</v>
@@ -37249,7 +37249,7 @@
         <v>50</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F468" s="3">
         <v>20</v>
@@ -37282,7 +37282,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>26</v>
@@ -37291,7 +37291,7 @@
         <v>35</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F469" s="3">
         <v>21</v>
@@ -37356,13 +37356,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C470" s="3" t="s">
-        <v>558</v>
-      </c>
       <c r="D470" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E470" s="3" t="s">
         <v>21</v>
@@ -37430,7 +37430,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>26</v>
@@ -37504,7 +37504,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>26</v>
@@ -37578,7 +37578,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>26</v>
@@ -37652,10 +37652,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>60</v>
@@ -37726,13 +37726,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E475" s="3" t="s">
         <v>39</v>
@@ -37800,10 +37800,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>565</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>60</v>
@@ -37874,16 +37874,16 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F477" s="3">
         <v>24</v>
@@ -37948,10 +37948,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>35</v>
@@ -38022,7 +38022,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>26</v>
@@ -38096,13 +38096,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>39</v>
@@ -38170,7 +38170,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>26</v>
@@ -38179,7 +38179,7 @@
         <v>20</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F481" s="3">
         <v>41</v>
@@ -38244,10 +38244,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>38</v>
@@ -38318,16 +38318,16 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F483" s="3">
         <v>31</v>
@@ -38392,16 +38392,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F484" s="3">
         <v>23</v>
@@ -38466,7 +38466,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>59</v>
@@ -38540,7 +38540,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>26</v>
@@ -38549,7 +38549,7 @@
         <v>42</v>
       </c>
       <c r="E486" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F486" s="3">
         <v>28</v>
@@ -38614,7 +38614,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>26</v>
@@ -38688,7 +38688,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>26</v>
@@ -38762,7 +38762,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>59</v>
@@ -38771,7 +38771,7 @@
         <v>60</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F489" s="3">
         <v>31</v>
@@ -38836,7 +38836,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>45</v>
@@ -38910,7 +38910,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>26</v>
@@ -38919,7 +38919,7 @@
         <v>38</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F491" s="3">
         <v>20</v>
@@ -38984,7 +38984,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>26</v>
@@ -39058,7 +39058,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>26</v>
@@ -39067,7 +39067,7 @@
         <v>50</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F493" s="3">
         <v>24</v>
@@ -39132,16 +39132,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F494" s="3">
         <v>20</v>
@@ -39206,13 +39206,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E495" s="3" t="s">
         <v>52</v>
@@ -39280,7 +39280,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>26</v>
@@ -39289,7 +39289,7 @@
         <v>38</v>
       </c>
       <c r="E496" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F496" s="3">
         <v>22</v>
@@ -39354,13 +39354,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E497" s="3" t="s">
         <v>21</v>
@@ -39428,7 +39428,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>26</v>
@@ -39502,13 +39502,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E499" s="3" t="s">
         <v>21</v>
@@ -39576,7 +39576,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>26</v>
